--- a/BackTest/2020-01-19 BackTest MTL.xlsx
+++ b/BackTest/2020-01-19 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-145305.80716259</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-143302.76556259</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-153513.20066259</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-153513.20066259</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-153503.20066259</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-157976.31176259</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-169780.5362625901</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-169174.9139625901</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-169174.9139625901</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-169174.9139625901</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-169174.9139625901</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-187221.5444625901</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-187221.5444625901</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-187201.5444625901</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-188006.1899625901</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-188006.1899625901</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-187971.8297625901</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-187971.8297625901</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-184659.5039625901</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-187969.8297625901</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-187969.8297625901</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-187969.8297625901</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-186193.3522625901</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-189740.6118625901</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-189740.6118625901</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-190073.4996625901</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-186604.5543625901</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-192381.5625625901</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-191270.4439625901</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-184553.1695625901</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-187953.1695625901</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-187953.1695625901</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-187953.1695625901</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-176522.7304625901</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-178486.7304625901</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-178486.7304625901</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-178089.3605625901</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-178196.2956625901</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-178196.2956625901</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-178190.7197625901</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-178200.7379625901</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-178190.7379625901</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-178190.7379625901</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-193357.2244625901</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-193357.2244625901</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-193357.2244625901</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-193357.2244625901</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-194052.9314625901</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-194050.9314625901</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-194046.9314625901</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-194118.2983625901</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-195487.8402625901</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-195487.8402625901</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-195487.8402625901</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-195487.8402625901</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-195487.8402625901</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-195748.0697625901</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-193247.3201625901</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-193711.3201625901</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-193711.3201625901</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-193661.3201625901</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-188711.3201625901</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-188893.3467625901</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-188893.3467625901</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-186813.7435625901</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-184467.1896625901</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-184467.1896625901</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-184467.1896625901</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-184467.1896625901</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-189444.1739625901</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-180922.8810625901</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-180748.8288625901</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-179748.8288625901</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-198454.9190625901</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-201405.8437625901</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-218086.1823625901</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-254335.1032625901</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-289086.3091625901</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-289548.5566625901</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-289548.5566625901</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-289548.5566625901</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-289548.5566625901</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-300618.4019625901</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-303492.3273625901</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-303492.3273625901</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-299503.3461625901</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-299507.6852625901</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-301298.1762625901</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-300399.0294625901</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-299027.9539625901</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-299041.7168625901</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-299770.5975625901</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-295447.2649040201</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-295447.2649040201</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-292502.3402040201</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-289520.5868040202</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-288479.6372040202</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-288485.8643040202</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-288483.8643040202</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-288493.4535040202</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-288493.4535040202</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-291790.2972040202</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-291775.3837040202</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-291782.6299040202</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-301660.5028040202</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5071,10 +5071,14 @@
         <v>-325352.6013040202</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="J142" t="n">
+        <v>315.2</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
@@ -5104,11 +5108,19 @@
         <v>-324648.9544040202</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="J143" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,15 +5149,19 @@
         <v>-324294.8420040202</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>316.2</v>
       </c>
       <c r="J144" t="n">
-        <v>316.2</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+        <v>315.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,17 +5190,15 @@
         <v>-323251.2473040202</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>317.8</v>
+      </c>
       <c r="J145" t="n">
-        <v>316.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>317.8</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5217,11 +5231,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>316.2</v>
+        <v>317.8</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L146" t="n">
@@ -5252,11 +5266,19 @@
         <v>-325251.5152040201</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="J147" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5285,11 +5307,19 @@
         <v>-323973.7986040202</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>316.2</v>
+      </c>
+      <c r="J148" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5318,11 +5348,19 @@
         <v>-323973.7986040202</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="J149" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5351,11 +5389,19 @@
         <v>-323793.7296040201</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="J150" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5387,8 +5433,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5420,8 +5472,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5453,8 +5511,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5486,8 +5550,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5519,8 +5589,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5552,8 +5628,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5585,8 +5667,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5618,8 +5706,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5651,8 +5745,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5684,8 +5784,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5717,8 +5823,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5750,8 +5862,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5783,8 +5901,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5816,8 +5940,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5849,8 +5979,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5882,8 +6018,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5915,8 +6057,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5948,8 +6096,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5981,8 +6135,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6014,8 +6174,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6047,8 +6213,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6080,8 +6252,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6113,8 +6291,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6146,8 +6330,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6179,8 +6369,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6212,8 +6408,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6245,8 +6447,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6278,8 +6486,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6311,8 +6525,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6344,8 +6564,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6377,8 +6603,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6410,8 +6642,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6443,8 +6681,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6473,15 +6717,17 @@
         <v>-326748.16034764</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>315.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>315.3</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
+        <v>317.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6510,17 +6756,17 @@
         <v>-329076.20604764</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>316</v>
       </c>
       <c r="J185" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L185" t="n">
@@ -6551,17 +6797,17 @@
         <v>-329076.20604764</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>315.8</v>
       </c>
       <c r="J186" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L186" t="n">
@@ -6592,11 +6838,13 @@
         <v>-324684.33894764</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>315.8</v>
+      </c>
       <c r="J187" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6631,13 +6879,13 @@
         <v>-321849.85264764</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>316.9</v>
       </c>
       <c r="J188" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6672,13 +6920,13 @@
         <v>-322324.95024764</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>317</v>
       </c>
       <c r="J189" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6713,11 +6961,13 @@
         <v>-322324.95024764</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>316.9</v>
+      </c>
       <c r="J190" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6752,13 +7002,13 @@
         <v>-319816.5549606</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>316.9</v>
       </c>
       <c r="J191" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6793,13 +7043,13 @@
         <v>-320883.2509958401</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>317.9</v>
       </c>
       <c r="J192" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6834,13 +7084,13 @@
         <v>-319923.04659333</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>317.8</v>
       </c>
       <c r="J193" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6875,11 +7125,13 @@
         <v>-322654.27789333</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>318</v>
+      </c>
       <c r="J194" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -6914,13 +7166,11 @@
         <v>-346388.13299333</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>317.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -6959,7 +7209,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -6994,11 +7244,13 @@
         <v>-350411.24489333</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>316.2</v>
+      </c>
       <c r="J197" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7033,11 +7285,13 @@
         <v>-348941.18879333</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>314.4</v>
+      </c>
       <c r="J198" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7072,11 +7326,13 @@
         <v>-348941.18879333</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>315.2</v>
+      </c>
       <c r="J199" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7111,11 +7367,13 @@
         <v>-348314.4806933301</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>315.2</v>
+      </c>
       <c r="J200" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7150,13 +7408,13 @@
         <v>-345530.7097933301</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>315.4</v>
       </c>
       <c r="J201" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7191,13 +7449,13 @@
         <v>-346603.0472933301</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>316.7</v>
       </c>
       <c r="J202" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7232,13 +7490,13 @@
         <v>-346603.0472933301</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>315.6</v>
       </c>
       <c r="J203" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7273,13 +7531,13 @@
         <v>-341276.4590933301</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>315.6</v>
       </c>
       <c r="J204" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7314,13 +7572,13 @@
         <v>-341276.4590933301</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>316.7</v>
       </c>
       <c r="J205" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7355,13 +7613,13 @@
         <v>-341276.4590933301</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>316.7</v>
       </c>
       <c r="J206" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7396,13 +7654,13 @@
         <v>-341276.4590933301</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>316.7</v>
       </c>
       <c r="J207" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7437,13 +7695,13 @@
         <v>-341642.9703933301</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>316.7</v>
       </c>
       <c r="J208" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7478,13 +7736,13 @@
         <v>-341639.9703933301</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>315.9</v>
       </c>
       <c r="J209" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7519,13 +7777,13 @@
         <v>-341639.9703933301</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>316.7</v>
       </c>
       <c r="J210" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7560,11 +7818,13 @@
         <v>-344601.7149933301</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>316.7</v>
+      </c>
       <c r="J211" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7599,13 +7859,13 @@
         <v>-344591.7149933301</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>315.9</v>
       </c>
       <c r="J212" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7640,11 +7900,13 @@
         <v>-358892.8045141501</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>317.9</v>
+      </c>
       <c r="J213" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7679,11 +7941,13 @@
         <v>-354161.49511415</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>317</v>
+      </c>
       <c r="J214" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7718,11 +7982,13 @@
         <v>-353174.00960188</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>317.8</v>
+      </c>
       <c r="J215" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7757,11 +8023,13 @@
         <v>-353491.00550188</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>318.3</v>
+      </c>
       <c r="J216" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7800,7 +8068,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7839,7 +8107,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7878,7 +8146,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7917,7 +8185,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7956,7 +8224,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7991,11 +8259,13 @@
         <v>-363455.4281813001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>319</v>
+      </c>
       <c r="J222" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8030,11 +8300,13 @@
         <v>-363457.0281813</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>320.2</v>
+      </c>
       <c r="J223" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8069,11 +8341,13 @@
         <v>-366412.3177813001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>319.2</v>
+      </c>
       <c r="J224" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8112,7 +8386,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8151,7 +8425,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8190,7 +8464,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8225,11 +8499,13 @@
         <v>-359374.2400813001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>315.7</v>
+      </c>
       <c r="J228" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8264,11 +8540,13 @@
         <v>-359374.2400813001</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>315.8</v>
+      </c>
       <c r="J229" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8303,11 +8581,13 @@
         <v>-359374.2400813001</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>315.8</v>
+      </c>
       <c r="J230" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8342,13 +8622,13 @@
         <v>-363095.1547813001</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>315.8</v>
       </c>
       <c r="J231" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8383,13 +8663,13 @@
         <v>-363095.1547813001</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>315.7</v>
       </c>
       <c r="J232" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8424,13 +8704,13 @@
         <v>-363095.1547813001</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>315.7</v>
       </c>
       <c r="J233" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8465,13 +8745,13 @@
         <v>-363095.1547813001</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>315.7</v>
       </c>
       <c r="J234" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8506,13 +8786,13 @@
         <v>-362109.0833813001</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>315.7</v>
       </c>
       <c r="J235" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8547,13 +8827,13 @@
         <v>-362109.0833813001</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>315.8</v>
       </c>
       <c r="J236" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8588,13 +8868,13 @@
         <v>-361412.8241813001</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>315.8</v>
       </c>
       <c r="J237" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8629,13 +8909,13 @@
         <v>-359880.2897813001</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>316</v>
       </c>
       <c r="J238" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8670,13 +8950,13 @@
         <v>-360234.5526813001</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>316.9</v>
       </c>
       <c r="J239" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8711,13 +8991,13 @@
         <v>-360221.5911813001</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>316</v>
       </c>
       <c r="J240" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8752,13 +9032,13 @@
         <v>-361377.9993813001</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>317</v>
       </c>
       <c r="J241" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8793,13 +9073,13 @@
         <v>-361377.9993813001</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>316</v>
       </c>
       <c r="J242" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8834,13 +9114,13 @@
         <v>-355939.4472813001</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>316</v>
       </c>
       <c r="J243" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8875,13 +9155,13 @@
         <v>-357033.7953813002</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>318</v>
       </c>
       <c r="J244" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8916,13 +9196,13 @@
         <v>-357630.8419813002</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>317.6</v>
       </c>
       <c r="J245" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8957,11 +9237,13 @@
         <v>-353800.2056813001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>316</v>
+      </c>
       <c r="J246" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8996,11 +9278,13 @@
         <v>-424410.2056813001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>316.1</v>
+      </c>
       <c r="J247" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9039,7 +9323,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9078,7 +9362,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9117,7 +9401,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9156,7 +9440,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9191,13 +9475,13 @@
         <v>-424509.0372813002</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>317.9</v>
       </c>
       <c r="J252" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9232,13 +9516,13 @@
         <v>-424466.4817813002</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>317.9</v>
       </c>
       <c r="J253" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9273,11 +9557,13 @@
         <v>-423064.0068813002</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>318</v>
+      </c>
       <c r="J254" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9312,13 +9598,13 @@
         <v>-420972.8970813002</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>318.3</v>
       </c>
       <c r="J255" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9353,11 +9639,13 @@
         <v>-419835.8970813002</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>318.9</v>
+      </c>
       <c r="J256" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9392,13 +9680,13 @@
         <v>-417949.9632133302</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>319</v>
       </c>
       <c r="J257" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9433,11 +9721,13 @@
         <v>-412867.3134597202</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>320.5</v>
+      </c>
       <c r="J258" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9476,7 +9766,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9515,7 +9805,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9554,7 +9844,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9593,7 +9883,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9632,7 +9922,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9671,7 +9961,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9710,7 +10000,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9749,7 +10039,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9788,7 +10078,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9827,7 +10117,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9866,7 +10156,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9905,7 +10195,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9944,7 +10234,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9983,7 +10273,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10022,7 +10312,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10061,7 +10351,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10100,7 +10390,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10139,7 +10429,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10178,7 +10468,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10217,7 +10507,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10256,7 +10546,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10295,7 +10585,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10334,7 +10624,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10369,13 +10659,11 @@
         <v>-444092.4362386002</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="n">
-        <v>320.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10414,7 +10702,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10449,11 +10737,13 @@
         <v>-434365.5268386002</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>320.9</v>
+      </c>
       <c r="J284" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10488,13 +10778,11 @@
         <v>-436944.7308386003</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>321.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10533,7 +10821,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10572,7 +10860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10611,7 +10899,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10650,7 +10938,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10689,7 +10977,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10728,7 +11016,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10767,7 +11055,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10806,7 +11094,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10845,7 +11133,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10884,7 +11172,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10923,7 +11211,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10962,7 +11250,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11001,7 +11289,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11040,7 +11328,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11079,7 +11367,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11118,7 +11406,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11153,11 +11441,11 @@
         <v>-443356.1159684902</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11192,11 +11480,11 @@
         <v>-449922.0890684902</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11231,11 +11519,11 @@
         <v>-450690.2304684902</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11270,11 +11558,11 @@
         <v>-450690.2304684902</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11309,11 +11597,11 @@
         <v>-452022.2093684902</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11348,11 +11636,11 @@
         <v>-451928.1346684902</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11391,7 +11679,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11426,11 +11714,11 @@
         <v>-451918.1346684902</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11465,11 +11753,11 @@
         <v>-453427.1346684902</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11508,7 +11796,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11547,7 +11835,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11586,7 +11874,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11625,7 +11913,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11660,11 +11948,11 @@
         <v>-460784.5612684902</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11703,7 +11991,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11738,11 +12026,11 @@
         <v>-462716.8155029202</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11777,11 +12065,11 @@
         <v>-462847.8154029202</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11816,11 +12104,11 @@
         <v>-462847.8154029202</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11855,11 +12143,11 @@
         <v>-462840.9083466602</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11894,11 +12182,11 @@
         <v>-445183.8577459202</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11933,11 +12221,11 @@
         <v>-445214.8144022602</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11972,11 +12260,11 @@
         <v>-453507.1554022602</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12015,7 +12303,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12050,11 +12338,11 @@
         <v>-465759.5252022602</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12089,11 +12377,11 @@
         <v>-465755.1491022602</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12128,11 +12416,11 @@
         <v>-470288.1724022602</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12167,11 +12455,11 @@
         <v>-469825.3015863402</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12206,11 +12494,11 @@
         <v>-488308.3015863402</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12245,11 +12533,11 @@
         <v>-488308.3015863402</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12288,7 +12576,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12327,7 +12615,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12366,7 +12654,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12405,7 +12693,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12444,7 +12732,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12483,7 +12771,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12518,11 +12806,11 @@
         <v>-489918.8175832203</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12557,11 +12845,11 @@
         <v>-519566.4467832203</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12596,11 +12884,11 @@
         <v>-519527.3892832203</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12639,7 +12927,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12674,11 +12962,11 @@
         <v>-519763.3892832203</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12717,7 +13005,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12756,7 +13044,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12795,7 +13083,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12834,7 +13122,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12873,7 +13161,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12912,7 +13200,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12951,7 +13239,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12990,7 +13278,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13029,7 +13317,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13068,7 +13356,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13107,7 +13395,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13146,7 +13434,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13185,7 +13473,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13224,7 +13512,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13263,7 +13551,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13298,11 +13586,11 @@
         <v>-527436.8662832204</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13341,7 +13629,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13380,7 +13668,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13419,7 +13707,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13458,7 +13746,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13497,7 +13785,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13536,7 +13824,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13575,7 +13863,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13614,7 +13902,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13653,7 +13941,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13692,7 +13980,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13731,7 +14019,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13770,7 +14058,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13809,7 +14097,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13844,11 +14132,11 @@
         <v>-513887.0621832202</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13883,11 +14171,11 @@
         <v>-514371.4730832202</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13922,11 +14210,11 @@
         <v>-514371.4730832202</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13965,7 +14253,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -14004,7 +14292,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14039,11 +14327,11 @@
         <v>-514272.4433832202</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14078,11 +14366,11 @@
         <v>-514272.4433832202</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14121,7 +14409,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14156,11 +14444,11 @@
         <v>-516482.3470832202</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -14195,11 +14483,11 @@
         <v>-526926.5076832202</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14234,11 +14522,11 @@
         <v>-526884.8451832202</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14273,11 +14561,11 @@
         <v>-537046.7623832203</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14316,7 +14604,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14355,7 +14643,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14394,7 +14682,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14433,7 +14721,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14472,7 +14760,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14511,7 +14799,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14550,7 +14838,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14589,7 +14877,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14628,7 +14916,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14667,7 +14955,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14706,7 +14994,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14745,7 +15033,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14780,11 +15068,11 @@
         <v>-528696.9023214203</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14819,11 +15107,11 @@
         <v>-531182.4008214202</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14858,11 +15146,11 @@
         <v>-531182.4008214202</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14897,11 +15185,11 @@
         <v>-531182.4008214202</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14936,11 +15224,11 @@
         <v>-531172.4008214202</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14975,11 +15263,11 @@
         <v>-529763.5750882502</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -15014,11 +15302,11 @@
         <v>-529753.5750882502</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -15053,11 +15341,11 @@
         <v>-541993.5750882502</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -15092,11 +15380,11 @@
         <v>-541972.6808319503</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -15131,11 +15419,11 @@
         <v>-541948.3320530002</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -15170,11 +15458,11 @@
         <v>-542997.2718530003</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -15213,7 +15501,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -15252,7 +15540,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -15291,7 +15579,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15330,7 +15618,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15369,7 +15657,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15408,7 +15696,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15447,7 +15735,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15486,7 +15774,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15525,7 +15813,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15564,7 +15852,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15603,7 +15891,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15642,7 +15930,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15681,7 +15969,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15720,7 +16008,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15759,7 +16047,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15798,7 +16086,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15837,7 +16125,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15876,7 +16164,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15915,7 +16203,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15954,7 +16242,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15993,7 +16281,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -16032,7 +16320,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -16071,7 +16359,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -16110,7 +16398,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -16149,7 +16437,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16188,7 +16476,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16227,7 +16515,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16266,7 +16554,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16305,7 +16593,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16344,7 +16632,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16383,7 +16671,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16422,7 +16710,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16461,7 +16749,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16500,7 +16788,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16539,7 +16827,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16578,7 +16866,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16613,11 +16901,13 @@
         <v>-569842.3569566699</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>316.6</v>
+      </c>
       <c r="J442" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16656,7 +16946,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16695,7 +16985,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16734,7 +17024,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16773,7 +17063,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16812,7 +17102,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16851,7 +17141,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16890,7 +17180,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16929,7 +17219,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16964,11 +17254,11 @@
         <v>-569068.64966377</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -17003,11 +17293,11 @@
         <v>-569073.64966377</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -17042,11 +17332,11 @@
         <v>-569068.64966377</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -17081,11 +17371,11 @@
         <v>-566640.54946377</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17120,11 +17410,11 @@
         <v>-566670.54946377</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17159,11 +17449,11 @@
         <v>-566477.54946377</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17202,7 +17492,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17241,7 +17531,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17280,7 +17570,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17319,7 +17609,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17358,7 +17648,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17397,7 +17687,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17436,7 +17726,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17475,7 +17765,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17514,7 +17804,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17553,7 +17843,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17592,7 +17882,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17631,7 +17921,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17670,7 +17960,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17709,7 +17999,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17748,7 +18038,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17787,7 +18077,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17826,7 +18116,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17865,7 +18155,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17904,7 +18194,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17943,7 +18233,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17982,7 +18272,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -18017,11 +18307,11 @@
         <v>-570631.1968289001</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -18060,7 +18350,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -18099,7 +18389,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -18138,7 +18428,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -18177,7 +18467,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -18216,7 +18506,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -18255,7 +18545,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -18294,7 +18584,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -18333,7 +18623,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -18372,7 +18662,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -18411,7 +18701,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -18450,7 +18740,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18489,7 +18779,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18528,7 +18818,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18567,7 +18857,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18606,7 +18896,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18645,7 +18935,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -18684,7 +18974,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18723,7 +19013,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18762,7 +19052,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18801,7 +19091,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18840,7 +19130,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18879,7 +19169,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18918,7 +19208,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -18957,7 +19247,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -18996,7 +19286,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -19035,7 +19325,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -19074,7 +19364,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -19113,7 +19403,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -19152,7 +19442,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -19191,7 +19481,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -19230,7 +19520,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -19269,7 +19559,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -19308,7 +19598,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -19347,7 +19637,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -19386,7 +19676,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -19425,7 +19715,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19464,7 +19754,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -19503,7 +19793,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -19542,7 +19832,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -19581,7 +19871,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -19620,7 +19910,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -19659,7 +19949,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -19698,7 +19988,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -19737,7 +20027,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -19776,7 +20066,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -19815,7 +20105,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -19854,7 +20144,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -19893,7 +20183,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -19932,7 +20222,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -19971,7 +20261,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -20010,7 +20300,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -20049,7 +20339,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -20088,7 +20378,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -20127,7 +20417,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -20166,7 +20456,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -20205,7 +20495,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -20244,7 +20534,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -20279,11 +20569,11 @@
         <v>-606369.4630382301</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -20318,11 +20608,11 @@
         <v>-611369.4630382301</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -20361,7 +20651,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -20396,11 +20686,11 @@
         <v>-611194.6943382301</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -20439,7 +20729,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -20474,11 +20764,11 @@
         <v>-633256.73623823</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -20517,7 +20807,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -20556,7 +20846,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -20595,7 +20885,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -20634,7 +20924,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -20673,7 +20963,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -20712,7 +21002,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -20751,7 +21041,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -20790,7 +21080,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -20829,7 +21119,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -20868,7 +21158,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -20907,7 +21197,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -20946,7 +21236,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -20985,7 +21275,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -21024,7 +21314,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -21063,7 +21353,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -21102,7 +21392,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -21141,7 +21431,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -21180,7 +21470,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -21219,7 +21509,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -21258,7 +21548,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -21297,7 +21587,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -21336,7 +21626,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -21375,7 +21665,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -21410,11 +21700,11 @@
         <v>-637493.9878382301</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -21453,7 +21743,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -21488,11 +21778,11 @@
         <v>-684979.0341382301</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -21531,7 +21821,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -21570,7 +21860,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -21609,7 +21899,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -21648,7 +21938,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -21687,7 +21977,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -21726,7 +22016,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -21765,7 +22055,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -21804,7 +22094,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -21843,7 +22133,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -21882,7 +22172,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -21921,7 +22211,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -21960,7 +22250,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -21999,7 +22289,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -22038,7 +22328,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -22077,7 +22367,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -22116,7 +22406,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -22155,7 +22445,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -22194,7 +22484,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -22233,7 +22523,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -22272,7 +22562,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -22311,7 +22601,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -22350,7 +22640,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -22389,7 +22679,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -22428,7 +22718,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -22467,7 +22757,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -22506,7 +22796,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -22545,7 +22835,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -22584,7 +22874,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -22623,7 +22913,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -22662,7 +22952,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -22701,7 +22991,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -22740,7 +23030,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -22779,7 +23069,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -22818,7 +23108,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -22857,7 +23147,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -22896,7 +23186,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -22935,7 +23225,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -22974,7 +23264,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -23013,7 +23303,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -23052,7 +23342,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -23091,7 +23381,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -23130,7 +23420,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -23169,7 +23459,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -23208,7 +23498,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -23243,23 +23533,21 @@
         <v>-625943.3559382298</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>315.3</v>
+        <v>317.8</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L612" t="n">
-        <v>1.05557722803679</v>
-      </c>
-      <c r="M612" t="n">
-        <v>1.041640178003814</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -23284,11 +23572,17 @@
         <v>-631288.4648382298</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23317,11 +23611,17 @@
         <v>-635191.7630382298</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23350,11 +23650,17 @@
         <v>-641687.0465382298</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23383,11 +23689,17 @@
         <v>-654973.0951382298</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23419,8 +23731,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23452,8 +23770,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23485,8 +23809,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23518,8 +23848,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23551,8 +23887,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23584,8 +23926,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23617,8 +23965,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23650,8 +24004,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23683,8 +24043,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23716,8 +24082,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23749,8 +24121,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23782,8 +24160,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23815,8 +24199,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23848,8 +24238,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23881,8 +24277,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23914,8 +24316,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23947,8 +24355,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23980,8 +24394,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24013,8 +24433,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24046,8 +24472,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24079,8 +24511,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24112,8 +24550,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24145,8 +24589,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24175,11 +24625,17 @@
         <v>-771637.63023823</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24208,11 +24664,17 @@
         <v>-771032.6290382299</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24244,8 +24706,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24277,8 +24745,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24307,11 +24781,17 @@
         <v>-850765.70973823</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24340,11 +24820,17 @@
         <v>-846885.49763823</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24376,8 +24862,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24409,8 +24901,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24442,8 +24940,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24475,8 +24979,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24508,8 +25018,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24541,8 +25057,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24574,8 +25096,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24607,8 +25135,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24640,8 +25174,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24673,8 +25213,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24703,11 +25249,17 @@
         <v>-854331.7310382299</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24736,11 +25288,17 @@
         <v>-844217.9927382299</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24772,8 +25330,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24805,8 +25369,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24835,11 +25405,17 @@
         <v>-848601.0291382299</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24868,11 +25444,19 @@
         <v>-851298.8968382298</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>318.2</v>
+      </c>
+      <c r="J661" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24904,8 +25488,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24937,8 +25527,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24970,8 +25566,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25003,8 +25605,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25036,8 +25644,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25069,8 +25683,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25102,8 +25722,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25135,8 +25761,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25168,8 +25800,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25201,8 +25839,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25234,8 +25878,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25267,8 +25917,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25300,8 +25956,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25333,8 +25995,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25366,8 +26034,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25399,8 +26073,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25432,8 +26112,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25462,11 +26148,19 @@
         <v>-852051.82733823</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>318</v>
+      </c>
+      <c r="J679" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25495,11 +26189,19 @@
         <v>-851161.11773823</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>317.6</v>
+      </c>
+      <c r="J680" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25528,11 +26230,19 @@
         <v>-849126.6353382301</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>318.3</v>
+      </c>
+      <c r="J681" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25561,11 +26271,19 @@
         <v>-871090.8975382301</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>318.4</v>
+      </c>
+      <c r="J682" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25594,11 +26312,19 @@
         <v>-870879.1607382301</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="J683" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25627,11 +26353,19 @@
         <v>-864317.19763823</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>318</v>
+      </c>
+      <c r="J684" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25663,14 +26397,20 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
       <c r="M685" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest MTL.xlsx
+++ b/BackTest/2020-01-19 BackTest MTL.xlsx
@@ -10318,7 +10318,7 @@
         <v>-443681.4387684902</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-684979.0341382301</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-684979.0341382301</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-685179.0341382301</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-702486.2049382301</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-723500.3032382298</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-723500.3032382298</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-687518.4932382298</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-687518.4932382298</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-687518.4932382298</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-625943.3559382298</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-631288.4648382298</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-635191.7630382298</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-641687.0465382298</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-654973.0951382298</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-780758.77173823</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-775459.70493823</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-775459.70493823</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-775459.70493823</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-772711.59543823</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22297,687 +22297,625 @@
         <v>-853826.2208382299</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
+      <c r="L664" t="n">
+        <v>1</v>
+      </c>
+      <c r="M664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="n">
         <v>317.4</v>
       </c>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
+      <c r="C665" t="n">
+        <v>317.3</v>
+      </c>
+      <c r="D665" t="n">
+        <v>317.4</v>
+      </c>
+      <c r="E665" t="n">
+        <v>317.3</v>
+      </c>
+      <c r="F665" t="n">
+        <v>1577.2731</v>
+      </c>
+      <c r="G665" t="n">
+        <v>-853826.2208382299</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
+      <c r="L665" t="n">
+        <v>1</v>
+      </c>
+      <c r="M665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="n">
+        <v>317.4</v>
+      </c>
+      <c r="C666" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="D666" t="n">
+        <v>317.4</v>
+      </c>
+      <c r="E666" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="F666" t="n">
+        <v>7458.934</v>
+      </c>
+      <c r="G666" t="n">
+        <v>-861285.1548382299</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
+      <c r="L666" t="n">
+        <v>1</v>
+      </c>
+      <c r="M666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="C667" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="D667" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="E667" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="F667" t="n">
+        <v>4430.5172</v>
+      </c>
+      <c r="G667" t="n">
+        <v>-861285.1548382299</v>
+      </c>
+      <c r="H667" t="n">
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
+      <c r="L667" t="n">
+        <v>1</v>
+      </c>
+      <c r="M667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="C668" t="n">
+        <v>319.7</v>
+      </c>
+      <c r="D668" t="n">
+        <v>319.7</v>
+      </c>
+      <c r="E668" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="F668" t="n">
+        <v>35949.2228</v>
+      </c>
+      <c r="G668" t="n">
+        <v>-825335.9320382299</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="n">
+        <v>1</v>
+      </c>
+      <c r="M668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="n">
+        <v>319.7</v>
+      </c>
+      <c r="C669" t="n">
+        <v>319.7</v>
+      </c>
+      <c r="D669" t="n">
+        <v>319.7</v>
+      </c>
+      <c r="E669" t="n">
+        <v>319.7</v>
+      </c>
+      <c r="F669" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G669" t="n">
+        <v>-825335.9320382299</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="n">
+        <v>1</v>
+      </c>
+      <c r="M669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="n">
+        <v>319.6</v>
+      </c>
+      <c r="C670" t="n">
+        <v>319.7</v>
+      </c>
+      <c r="D670" t="n">
+        <v>319.7</v>
+      </c>
+      <c r="E670" t="n">
+        <v>319.6</v>
+      </c>
+      <c r="F670" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G670" t="n">
+        <v>-825335.9320382299</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="n">
+        <v>1</v>
+      </c>
+      <c r="M670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="n">
+        <v>319.4</v>
+      </c>
+      <c r="C671" t="n">
+        <v>319.4</v>
+      </c>
+      <c r="D671" t="n">
+        <v>319.4</v>
+      </c>
+      <c r="E671" t="n">
+        <v>319.4</v>
+      </c>
+      <c r="F671" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G671" t="n">
+        <v>-826335.9320382299</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="n">
+        <v>1</v>
+      </c>
+      <c r="M671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="n">
+        <v>319.5</v>
+      </c>
+      <c r="C672" t="n">
+        <v>319.5</v>
+      </c>
+      <c r="D672" t="n">
+        <v>319.5</v>
+      </c>
+      <c r="E672" t="n">
+        <v>319.5</v>
+      </c>
+      <c r="F672" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G672" t="n">
+        <v>-821335.9320382299</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="n">
+        <v>1</v>
+      </c>
+      <c r="M672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="n">
+        <v>318</v>
+      </c>
+      <c r="C673" t="n">
+        <v>318</v>
+      </c>
+      <c r="D673" t="n">
+        <v>318</v>
+      </c>
+      <c r="E673" t="n">
+        <v>318</v>
+      </c>
+      <c r="F673" t="n">
+        <v>6301.832</v>
+      </c>
+      <c r="G673" t="n">
+        <v>-827637.7640382299</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="n">
+        <v>1</v>
+      </c>
+      <c r="M673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>318</v>
+      </c>
+      <c r="C674" t="n">
+        <v>318</v>
+      </c>
+      <c r="D674" t="n">
+        <v>318</v>
+      </c>
+      <c r="E674" t="n">
+        <v>318</v>
+      </c>
+      <c r="F674" t="n">
+        <v>8614.366099999999</v>
+      </c>
+      <c r="G674" t="n">
+        <v>-827637.7640382299</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="n">
+        <v>1</v>
+      </c>
+      <c r="M674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="C675" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="D675" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="E675" t="n">
+        <v>316.9</v>
+      </c>
+      <c r="F675" t="n">
+        <v>16412.1235</v>
+      </c>
+      <c r="G675" t="n">
+        <v>-844049.8875382299</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="n">
+        <v>1</v>
+      </c>
+      <c r="M675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>318</v>
+      </c>
+      <c r="C676" t="n">
+        <v>318</v>
+      </c>
+      <c r="D676" t="n">
+        <v>318</v>
+      </c>
+      <c r="E676" t="n">
+        <v>318</v>
+      </c>
+      <c r="F676" t="n">
+        <v>2817.8363</v>
+      </c>
+      <c r="G676" t="n">
+        <v>-841232.05123823</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="n">
+        <v>1</v>
+      </c>
+      <c r="M676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>319.5</v>
+      </c>
+      <c r="C677" t="n">
+        <v>319.5</v>
+      </c>
+      <c r="D677" t="n">
+        <v>319.5</v>
+      </c>
+      <c r="E677" t="n">
+        <v>319.5</v>
+      </c>
+      <c r="F677" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G677" t="n">
+        <v>-839232.05123823</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="n">
+        <v>1</v>
+      </c>
+      <c r="M677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="n">
+        <v>318</v>
+      </c>
+      <c r="C678" t="n">
+        <v>318</v>
+      </c>
+      <c r="D678" t="n">
+        <v>318</v>
+      </c>
+      <c r="E678" t="n">
+        <v>318</v>
+      </c>
+      <c r="F678" t="n">
+        <v>937.7399</v>
+      </c>
+      <c r="G678" t="n">
+        <v>-840169.79113823</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
+      <c r="L678" t="n">
+        <v>1</v>
+      </c>
+      <c r="M678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="C679" t="n">
+        <v>317.6</v>
+      </c>
+      <c r="D679" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="E679" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="F679" t="n">
+        <v>11882.0362</v>
+      </c>
+      <c r="G679" t="n">
+        <v>-852051.82733823</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
+      <c r="L679" t="n">
+        <v>1</v>
+      </c>
+      <c r="M679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="C680" t="n">
+        <v>318.3</v>
+      </c>
+      <c r="D680" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="E680" t="n">
+        <v>318.3</v>
+      </c>
+      <c r="F680" t="n">
+        <v>890.7096</v>
+      </c>
+      <c r="G680" t="n">
+        <v>-851161.11773823</v>
+      </c>
+      <c r="H680" t="n">
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>317.6</v>
+      </c>
+      <c r="J680" t="n">
+        <v>317.6</v>
+      </c>
+      <c r="K680" t="inlineStr"/>
+      <c r="L680" t="n">
+        <v>1</v>
+      </c>
+      <c r="M680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="n">
+        <v>318.4</v>
+      </c>
+      <c r="C681" t="n">
+        <v>318.4</v>
+      </c>
+      <c r="D681" t="n">
+        <v>318.4</v>
+      </c>
+      <c r="E681" t="n">
+        <v>318.4</v>
+      </c>
+      <c r="F681" t="n">
+        <v>2034.4824</v>
+      </c>
+      <c r="G681" t="n">
+        <v>-849126.6353382301</v>
+      </c>
+      <c r="H681" t="n">
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>318.3</v>
+      </c>
+      <c r="J681" t="n">
+        <v>317.6</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L681" t="n">
+        <v>1</v>
+      </c>
+      <c r="M681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>319.4</v>
+      </c>
+      <c r="C682" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="D682" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="E682" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="F682" t="n">
+        <v>21964.2622</v>
+      </c>
+      <c r="G682" t="n">
+        <v>-871090.8975382301</v>
+      </c>
+      <c r="H682" t="n">
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>318.4</v>
+      </c>
+      <c r="J682" t="n">
+        <v>317.6</v>
+      </c>
+      <c r="K682" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L664" t="n">
-        <v>1</v>
-      </c>
-      <c r="M664" t="inlineStr"/>
-    </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
-        <v>663</v>
-      </c>
-      <c r="B665" t="n">
-        <v>317.4</v>
-      </c>
-      <c r="C665" t="n">
-        <v>317.3</v>
-      </c>
-      <c r="D665" t="n">
-        <v>317.4</v>
-      </c>
-      <c r="E665" t="n">
-        <v>317.3</v>
-      </c>
-      <c r="F665" t="n">
-        <v>1577.2731</v>
-      </c>
-      <c r="G665" t="n">
-        <v>-853826.2208382299</v>
-      </c>
-      <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>317.3</v>
-      </c>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L665" t="n">
-        <v>1</v>
-      </c>
-      <c r="M665" t="inlineStr"/>
-    </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
-        <v>664</v>
-      </c>
-      <c r="B666" t="n">
-        <v>317.4</v>
-      </c>
-      <c r="C666" t="n">
-        <v>317.2</v>
-      </c>
-      <c r="D666" t="n">
-        <v>317.4</v>
-      </c>
-      <c r="E666" t="n">
-        <v>317.2</v>
-      </c>
-      <c r="F666" t="n">
-        <v>7458.934</v>
-      </c>
-      <c r="G666" t="n">
-        <v>-861285.1548382299</v>
-      </c>
-      <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>317.3</v>
-      </c>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L666" t="n">
-        <v>1</v>
-      </c>
-      <c r="M666" t="inlineStr"/>
-    </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="B667" t="n">
-        <v>317.2</v>
-      </c>
-      <c r="C667" t="n">
-        <v>317.2</v>
-      </c>
-      <c r="D667" t="n">
-        <v>317.2</v>
-      </c>
-      <c r="E667" t="n">
-        <v>317.2</v>
-      </c>
-      <c r="F667" t="n">
-        <v>4430.5172</v>
-      </c>
-      <c r="G667" t="n">
-        <v>-861285.1548382299</v>
-      </c>
-      <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L667" t="n">
-        <v>1</v>
-      </c>
-      <c r="M667" t="inlineStr"/>
-    </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
-        <v>666</v>
-      </c>
-      <c r="B668" t="n">
-        <v>317.2</v>
-      </c>
-      <c r="C668" t="n">
-        <v>319.7</v>
-      </c>
-      <c r="D668" t="n">
-        <v>319.7</v>
-      </c>
-      <c r="E668" t="n">
-        <v>317.2</v>
-      </c>
-      <c r="F668" t="n">
-        <v>35949.2228</v>
-      </c>
-      <c r="G668" t="n">
-        <v>-825335.9320382299</v>
-      </c>
-      <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L668" t="n">
-        <v>1</v>
-      </c>
-      <c r="M668" t="inlineStr"/>
-    </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="B669" t="n">
-        <v>319.7</v>
-      </c>
-      <c r="C669" t="n">
-        <v>319.7</v>
-      </c>
-      <c r="D669" t="n">
-        <v>319.7</v>
-      </c>
-      <c r="E669" t="n">
-        <v>319.7</v>
-      </c>
-      <c r="F669" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G669" t="n">
-        <v>-825335.9320382299</v>
-      </c>
-      <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L669" t="n">
-        <v>1</v>
-      </c>
-      <c r="M669" t="inlineStr"/>
-    </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="B670" t="n">
-        <v>319.6</v>
-      </c>
-      <c r="C670" t="n">
-        <v>319.7</v>
-      </c>
-      <c r="D670" t="n">
-        <v>319.7</v>
-      </c>
-      <c r="E670" t="n">
-        <v>319.6</v>
-      </c>
-      <c r="F670" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G670" t="n">
-        <v>-825335.9320382299</v>
-      </c>
-      <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L670" t="n">
-        <v>1</v>
-      </c>
-      <c r="M670" t="inlineStr"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="n">
-        <v>319.4</v>
-      </c>
-      <c r="C671" t="n">
-        <v>319.4</v>
-      </c>
-      <c r="D671" t="n">
-        <v>319.4</v>
-      </c>
-      <c r="E671" t="n">
-        <v>319.4</v>
-      </c>
-      <c r="F671" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G671" t="n">
-        <v>-826335.9320382299</v>
-      </c>
-      <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L671" t="n">
-        <v>1</v>
-      </c>
-      <c r="M671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="n">
-        <v>319.5</v>
-      </c>
-      <c r="C672" t="n">
-        <v>319.5</v>
-      </c>
-      <c r="D672" t="n">
-        <v>319.5</v>
-      </c>
-      <c r="E672" t="n">
-        <v>319.5</v>
-      </c>
-      <c r="F672" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G672" t="n">
-        <v>-821335.9320382299</v>
-      </c>
-      <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L672" t="n">
-        <v>1</v>
-      </c>
-      <c r="M672" t="inlineStr"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="B673" t="n">
-        <v>318</v>
-      </c>
-      <c r="C673" t="n">
-        <v>318</v>
-      </c>
-      <c r="D673" t="n">
-        <v>318</v>
-      </c>
-      <c r="E673" t="n">
-        <v>318</v>
-      </c>
-      <c r="F673" t="n">
-        <v>6301.832</v>
-      </c>
-      <c r="G673" t="n">
-        <v>-827637.7640382299</v>
-      </c>
-      <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L673" t="n">
-        <v>1</v>
-      </c>
-      <c r="M673" t="inlineStr"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="n">
-        <v>318</v>
-      </c>
-      <c r="C674" t="n">
-        <v>318</v>
-      </c>
-      <c r="D674" t="n">
-        <v>318</v>
-      </c>
-      <c r="E674" t="n">
-        <v>318</v>
-      </c>
-      <c r="F674" t="n">
-        <v>8614.366099999999</v>
-      </c>
-      <c r="G674" t="n">
-        <v>-827637.7640382299</v>
-      </c>
-      <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L674" t="n">
-        <v>1</v>
-      </c>
-      <c r="M674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="C675" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="D675" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="E675" t="n">
-        <v>316.9</v>
-      </c>
-      <c r="F675" t="n">
-        <v>16412.1235</v>
-      </c>
-      <c r="G675" t="n">
-        <v>-844049.8875382299</v>
-      </c>
-      <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L675" t="n">
-        <v>1</v>
-      </c>
-      <c r="M675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="n">
-        <v>318</v>
-      </c>
-      <c r="C676" t="n">
-        <v>318</v>
-      </c>
-      <c r="D676" t="n">
-        <v>318</v>
-      </c>
-      <c r="E676" t="n">
-        <v>318</v>
-      </c>
-      <c r="F676" t="n">
-        <v>2817.8363</v>
-      </c>
-      <c r="G676" t="n">
-        <v>-841232.05123823</v>
-      </c>
-      <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L676" t="n">
-        <v>1</v>
-      </c>
-      <c r="M676" t="inlineStr"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="n">
-        <v>319.5</v>
-      </c>
-      <c r="C677" t="n">
-        <v>319.5</v>
-      </c>
-      <c r="D677" t="n">
-        <v>319.5</v>
-      </c>
-      <c r="E677" t="n">
-        <v>319.5</v>
-      </c>
-      <c r="F677" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G677" t="n">
-        <v>-839232.05123823</v>
-      </c>
-      <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L677" t="n">
-        <v>1</v>
-      </c>
-      <c r="M677" t="inlineStr"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="B678" t="n">
-        <v>318</v>
-      </c>
-      <c r="C678" t="n">
-        <v>318</v>
-      </c>
-      <c r="D678" t="n">
-        <v>318</v>
-      </c>
-      <c r="E678" t="n">
-        <v>318</v>
-      </c>
-      <c r="F678" t="n">
-        <v>937.7399</v>
-      </c>
-      <c r="G678" t="n">
-        <v>-840169.79113823</v>
-      </c>
-      <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L678" t="n">
-        <v>1</v>
-      </c>
-      <c r="M678" t="inlineStr"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B679" t="n">
-        <v>318.1</v>
-      </c>
-      <c r="C679" t="n">
-        <v>317.6</v>
-      </c>
-      <c r="D679" t="n">
-        <v>318.1</v>
-      </c>
-      <c r="E679" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="F679" t="n">
-        <v>11882.0362</v>
-      </c>
-      <c r="G679" t="n">
-        <v>-852051.82733823</v>
-      </c>
-      <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L679" t="n">
-        <v>1</v>
-      </c>
-      <c r="M679" t="inlineStr"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B680" t="n">
-        <v>318.5</v>
-      </c>
-      <c r="C680" t="n">
-        <v>318.3</v>
-      </c>
-      <c r="D680" t="n">
-        <v>318.5</v>
-      </c>
-      <c r="E680" t="n">
-        <v>318.3</v>
-      </c>
-      <c r="F680" t="n">
-        <v>890.7096</v>
-      </c>
-      <c r="G680" t="n">
-        <v>-851161.11773823</v>
-      </c>
-      <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L680" t="n">
-        <v>1</v>
-      </c>
-      <c r="M680" t="inlineStr"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>679</v>
-      </c>
-      <c r="B681" t="n">
-        <v>318.4</v>
-      </c>
-      <c r="C681" t="n">
-        <v>318.4</v>
-      </c>
-      <c r="D681" t="n">
-        <v>318.4</v>
-      </c>
-      <c r="E681" t="n">
-        <v>318.4</v>
-      </c>
-      <c r="F681" t="n">
-        <v>2034.4824</v>
-      </c>
-      <c r="G681" t="n">
-        <v>-849126.6353382301</v>
-      </c>
-      <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L681" t="n">
-        <v>1</v>
-      </c>
-      <c r="M681" t="inlineStr"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="n">
-        <v>319.4</v>
-      </c>
-      <c r="C682" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="D682" t="n">
-        <v>319.9</v>
-      </c>
-      <c r="E682" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="F682" t="n">
-        <v>21964.2622</v>
-      </c>
-      <c r="G682" t="n">
-        <v>-871090.8975382301</v>
-      </c>
-      <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23006,10 +22944,14 @@
         <v>-870879.1607382301</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="J683" t="n">
+        <v>317.6</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23043,10 +22985,14 @@
         <v>-864317.19763823</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>318</v>
+      </c>
+      <c r="J684" t="n">
+        <v>317.6</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23080,10 +23026,14 @@
         <v>-864317.19763823</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="J685" t="n">
+        <v>317.6</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
